--- a/Spring34MVC01/이력서.xlsx
+++ b/Spring34MVC01/이력서.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>사진</t>
   </si>
@@ -33,19 +33,16 @@
     <t>생년월일</t>
   </si>
   <si>
-    <t>박매일</t>
-  </si>
-  <si>
-    <t>bitcocom@empal.com</t>
-  </si>
-  <si>
-    <t>서울특별시</t>
-  </si>
-  <si>
-    <t>010-1111-1111</t>
-  </si>
-  <si>
-    <t>1900-01-10</t>
+    <t>2121</t>
+  </si>
+  <si>
+    <t>21212</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>1909-01-10</t>
   </si>
   <si>
     <t>졸업년도</t>
@@ -60,25 +57,7 @@
     <t>졸업여부</t>
   </si>
   <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>대한민국대학교</t>
-  </si>
-  <si>
-    <t>컴퓨터공학과</t>
-  </si>
-  <si>
-    <t>졸업</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>코리아대학원</t>
-  </si>
-  <si>
-    <t>인공지능</t>
+    <t>1212</t>
   </si>
   <si>
     <t>근무기간</t>
@@ -93,39 +72,12 @@
     <t>근속연수</t>
   </si>
   <si>
-    <t>2010.10.10~2015.10.10</t>
-  </si>
-  <si>
-    <t>패스트캠퍼스</t>
-  </si>
-  <si>
-    <t>개발</t>
-  </si>
-  <si>
-    <t>5년</t>
-  </si>
-  <si>
-    <t>2016.10.10~2020.10.10</t>
-  </si>
-  <si>
-    <t>스마트캠퍼스</t>
-  </si>
-  <si>
-    <t>강의</t>
-  </si>
-  <si>
-    <t>4년</t>
-  </si>
-  <si>
-    <t>자기소개 (성장배경, 직장경력, 사회경험 등)
-저는 올해 초등학교 6학년인 남자아이와 4학년인 여자아이를 자녀로 두고 있는 42살의 14년차 전업주부 OOO입니다.
-미국인과 결혼하신 이모 덕에 어려서부터 영어에 대한 관심이 많았고 영어공부도 좋아했습니다. 관련해서 더 깊이있게 공부하고 싶었지만 고3 시절 가정형편이 좋지 못한 사정으로 대학진학을 통한 공부의 꿈을 미루고 바로 취직을 하게 됐습니다. 이후 전업주부가 되기 전까지는 백화점에서 5년간 근무하며 판매왕, 친절왕으로 여러 번 뽑혔을 정도로 제 성격은 매사에 끈기가 있고 적극적이며, 주위 사람에게 친절한 편입니다.
-하루 대부분의 시간을 주로 남편과 아이들을 위해 사용하지만 평일 낮 시간, 주말시간을 활용해 틈틈이 새로운 일을 배우고 자기계발을 하려고 노력합니다. 이 결과 작년에는 앙금플라워자격증, 올해에는 네일아트자격증을 취득하였습니다. 아주 대단한 자격증도 아니고 당장 어떤 가게를 차릴 것도 아니지만 무언가 새로운 일에 도전하고 성취감을 느끼는 걸 즐깁니다.
-학업계획 (지원동기 및 학업계획, 졸업 후 계획 등)
-14년간 아내로서 엄마로서 최선을 다해 열심히 살아오면서도 항상 배움, 그중에서도 체계적인 학습에 대한 아쉬움이 있었습니다. 또한 주부이지만 성장하는 아이들에게 멋진 엄마의 모습을 보여주고 싶습니다.
-제 환경이나 상황이 한 번에 긴 시간을 공부하기는 어렵겠지만 낮에는 아이들과 함께 공부하고, 아이들이 잠든 후 밤 시간을 이용해 짬짬이 공부하려고 합니다. 또한 주말에는 사이버외대에서 진행하는 특강이나 모임에도 적극적으로 참석해서 다른 학생들과 함께 공부하고, 쉽지는 않겠지만 해외 문화탐방과 같은 문화체험도 참가해 보고 싶습니다.
-사이버외대를 졸업한 후에 여건이 된다면 대학원에도 진학해 보고 싶습니다. 학부과정에서 키운 언어에 대한 실력과 전문성을 바탕으로 대학원에서는 효과적으로 영어를 가르칠 수 있는 교육법(교수법)에 대해 공부할 계획입니다. 또한 향후 가능하다면 어린이, 학생을 대상으로 영어를 가르치는 봉사활동도 해보고 싶습니다.
-원어민 교수님을 포함한 외국인과 거리낌 없이 소통하고 즐길 수 있는 가까운 미래 제 모습을 상상하며 열심히 하겠습니다.</t>
+    <t>212121</t>
+  </si>
+  <si>
+    <t>212121221212
+212121212121
+212121212121</t>
   </si>
 </sst>
 </file>
@@ -181,10 +133,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>371216</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -202,7 +154,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1438275" cy="1495425"/>
+          <a:ext cx="533400" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -216,11 +168,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="12.375" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -242,7 +197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="95.0" customHeight="true">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -250,52 +205,52 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -303,44 +258,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -359,7 +286,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
